--- a/Compras/Compras_Web_20210111/Argentina_Black_List_Tracking_2021.xlsx
+++ b/Compras/Compras_Web_20210111/Argentina_Black_List_Tracking_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\CinepolishArgentina\Compras\Compras_Web_20210111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DDD704-B2F2-420C-8FDB-E339B3BEE279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ED1023-8172-462D-BA24-E41A13159C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3707,7 +3707,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4788874-15F2-4B5E-BF51-FBCC4092F6F9}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4788874-15F2-4B5E-BF51-FBCC4092F6F9}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H4:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -4082,12 +4082,15 @@
   <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1639" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A1296" sqref="A1296:D1680"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
